--- a/projectlog.xlsx
+++ b/projectlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
@@ -130,9 +130,6 @@
     <t>24May2013</t>
   </si>
   <si>
-    <t>edit report</t>
-  </si>
-  <si>
     <t>Week 3 mockup Report</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>27May2013</t>
   </si>
   <si>
-    <t>learn how to use git</t>
-  </si>
-  <si>
     <t>2(20May-26May)</t>
   </si>
   <si>
@@ -187,15 +181,20 @@
     <t xml:space="preserve">Video Making Process:Finding suitable software, recording repeatedly, preparing scripts for ignition and mockup. </t>
   </si>
   <si>
-    <t>explore git and learn_x000D_
- git commands</t>
+    <t xml:space="preserve">Explore git and learn git commands               Learning css with w3school.com         </t>
+  </si>
+  <si>
+    <t>Llearn how to use git and css</t>
+  </si>
+  <si>
+    <t>Learn how to use git and css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -379,6 +378,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -457,6 +461,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -491,6 +496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,14 +672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
@@ -689,7 +695,7 @@
     <col min="16" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -739,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -785,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -831,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="78" customHeight="1">
+    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -845,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6">
         <v>7</v>
@@ -881,7 +887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="112.5" customHeight="1">
+    <row r="5" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -931,7 +937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="78" customHeight="1">
+    <row r="6" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -945,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6">
         <v>4</v>
@@ -981,7 +987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="41.25" customHeight="1">
+    <row r="7" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="6">
         <v>7</v>
@@ -1031,7 +1037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.5" customHeight="1">
+    <row r="8" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1045,16 +1051,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>16</v>
@@ -1069,24 +1075,24 @@
         <v>1</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="7">
         <v>4</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
@@ -1095,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>16</v>
@@ -1131,7 +1137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
@@ -1143,10 +1149,10 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>13</v>
@@ -1155,19 +1161,19 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
         <v>1</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
@@ -1179,10 +1185,10 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>13</v>
@@ -1191,19 +1197,19 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N11" s="7">
         <v>2</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
@@ -1215,10 +1221,10 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>13</v>
@@ -1227,19 +1233,19 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N12" s="7">
         <v>2</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" customHeight="1">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
@@ -1261,7 +1267,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="12.75" customHeight="1">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="6" t="s">
@@ -1283,7 +1289,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="6" t="s">
@@ -1305,7 +1311,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="6" t="s">
@@ -1327,7 +1333,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="12.75" customHeight="1">
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="6" t="s">
@@ -1349,7 +1355,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
@@ -1371,7 +1377,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="6" t="s">
@@ -1393,7 +1399,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="6" t="s">
@@ -1415,7 +1421,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1">
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="6" t="s">
@@ -1437,7 +1443,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1">
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="6" t="s">
@@ -1459,7 +1465,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="6" t="s">
@@ -1481,7 +1487,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:16" ht="12.75" customHeight="1">
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1492,7 +1498,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="12.75" customHeight="1">
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1503,7 +1509,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="12.75" customHeight="1">
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1514,7 +1520,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1525,7 +1531,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="12.75" customHeight="1">
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1536,7 +1542,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="12.75" customHeight="1">
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1547,7 +1553,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1">
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1558,7 +1564,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1">
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1569,7 +1575,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="12.75" customHeight="1">
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1580,7 +1586,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1591,7 +1597,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1602,7 +1608,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1613,7 +1619,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1624,7 +1630,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1635,7 +1641,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1646,7 +1652,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1657,7 +1663,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1668,7 +1674,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1679,7 +1685,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1690,7 +1696,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1701,7 +1707,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1712,7 +1718,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1723,7 +1729,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1734,7 +1740,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1745,7 +1751,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1">
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1756,7 +1762,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1">
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1767,7 +1773,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1">
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1777,7 +1783,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1787,7 +1793,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1">
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1797,7 +1803,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1">
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1807,7 +1813,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1">
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1817,7 +1823,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1">
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1827,7 +1833,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1">
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1837,7 +1843,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1">
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1847,7 +1853,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1857,7 +1863,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1">
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1867,7 +1873,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1">
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1877,7 +1883,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1">
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1887,7 +1893,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1">
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1897,7 +1903,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1">
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1907,7 +1913,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1917,7 +1923,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1">
+    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1927,7 +1933,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1">
+    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1937,7 +1943,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1">
+    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1947,7 +1953,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1">
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1957,7 +1963,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1">
+    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1967,7 +1973,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1">
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1977,7 +1983,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="12.75" customHeight="1">
+    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1987,7 +1993,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75" customHeight="1">
+    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1997,7 +2003,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75" customHeight="1">
+    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2007,7 +2013,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="12.75" customHeight="1">
+    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2017,7 +2023,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="12.75" customHeight="1">
+    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2027,7 +2033,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="12.75" customHeight="1">
+    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2037,7 +2043,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75" customHeight="1">
+    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2047,7 +2053,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1">
+    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2057,7 +2063,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75" customHeight="1">
+    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2067,7 +2073,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75" customHeight="1">
+    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2077,7 +2083,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75" customHeight="1">
+    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2087,7 +2093,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75" customHeight="1">
+    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2097,7 +2103,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="12.75" customHeight="1">
+    <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2107,7 +2113,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="12.75" customHeight="1">
+    <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2117,7 +2123,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="12.75" customHeight="1">
+    <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2127,7 +2133,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="12.75" customHeight="1">
+    <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2137,7 +2143,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="12.75" customHeight="1">
+    <row r="87" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2147,7 +2153,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="12.75" customHeight="1">
+    <row r="88" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2157,7 +2163,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75" customHeight="1">
+    <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2167,7 +2173,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="12.75" customHeight="1">
+    <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2177,7 +2183,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="12.75" customHeight="1">
+    <row r="91" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2187,7 +2193,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="12.75" customHeight="1">
+    <row r="92" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2197,7 +2203,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="12.75" customHeight="1">
+    <row r="93" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2207,7 +2213,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="12.75" customHeight="1">
+    <row r="94" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2217,7 +2223,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="12.75" customHeight="1">
+    <row r="95" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2227,7 +2233,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="12.75" customHeight="1">
+    <row r="96" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2237,7 +2243,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="12.75" customHeight="1">
+    <row r="97" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2247,7 +2253,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="12.75" customHeight="1">
+    <row r="98" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2257,7 +2263,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="12.75" customHeight="1">
+    <row r="99" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2267,7 +2273,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="12.75" customHeight="1">
+    <row r="100" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>

--- a/projectlog.xlsx
+++ b/projectlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -184,17 +184,119 @@
     <t xml:space="preserve">Explore git and learn git commands               Learning css with w3school.com         </t>
   </si>
   <si>
-    <t>Llearn how to use git and css</t>
-  </si>
-  <si>
     <t>Learn how to use git and css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning html with w3school.com         </t>
+  </si>
+  <si>
+    <t>Learn html tags and code</t>
+  </si>
+  <si>
+    <t>Learn about webapp2 and how to link webpages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn html tags and code </t>
+  </si>
+  <si>
+    <t>Learning python online and fact finding</t>
+  </si>
+  <si>
+    <t>Creating html files for website and designing with twitter bootstrap</t>
+  </si>
+  <si>
+    <t>Create landing page and homepage</t>
+  </si>
+  <si>
+    <t>4(03 Jun-09 Jun)</t>
+  </si>
+  <si>
+    <t>Creating html files for profile and addreview and editing main.py to link webpages</t>
+  </si>
+  <si>
+    <t>Create html files and link webpages</t>
+  </si>
+  <si>
+    <t>Make NUS open id work and create classes to store attributes</t>
+  </si>
+  <si>
+    <t>Reasearch on NUS open id</t>
+  </si>
+  <si>
+    <t>Learn how open id works</t>
+  </si>
+  <si>
+    <t>Editing main.py for attributes and research on open id</t>
+  </si>
+  <si>
+    <t>Create classes to store attributes and learn about open id</t>
+  </si>
+  <si>
+    <t>Editing main.py for open id</t>
+  </si>
+  <si>
+    <t>5(10 Jun-16 Jun)</t>
+  </si>
+  <si>
+    <t>Research on gql and using gql in main.py</t>
+  </si>
+  <si>
+    <t>Research on gql and sql</t>
+  </si>
+  <si>
+    <t>Learn about gql commands</t>
+  </si>
+  <si>
+    <t>Learn about gql and make gql queries in main.py</t>
+  </si>
+  <si>
+    <t>6(17 Jun-23 Jun)</t>
+  </si>
+  <si>
+    <t>Learning gql datastore and creating database</t>
+  </si>
+  <si>
+    <t>Learn about datastore and create database for users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create database for modules and link with html forms </t>
+  </si>
+  <si>
+    <t>Create database for modules and link with html forms</t>
+  </si>
+  <si>
+    <t>Editing html files to display reviews and profile</t>
+  </si>
+  <si>
+    <t>Edit html files</t>
+  </si>
+  <si>
+    <t>7(24 Jun-30 Jun)</t>
+  </si>
+  <si>
+    <t>Research on storing NUS modules</t>
+  </si>
+  <si>
+    <t>Research on json</t>
+  </si>
+  <si>
+    <t>Create new class to count modules and display reviews</t>
+  </si>
+  <si>
+    <t>Edit main.py</t>
+  </si>
+  <si>
+    <t>Edit report and record video for peer evaluation</t>
+  </si>
+  <si>
+    <t>Edit report and record video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -241,6 +343,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF7EE9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF99CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -332,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -372,12 +486,29 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -675,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1106,11 +1237,11 @@
       <c r="F9" s="6">
         <v>4</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="14" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>16</v>
@@ -1137,17 +1268,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+    <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="15">
+        <v>41422</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="I10" s="7" t="s">
         <v>44</v>
       </c>
@@ -1173,17 +1318,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+    <row r="11" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="15">
+        <v>41423</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="I11" s="7" t="s">
         <v>44</v>
       </c>
@@ -1209,17 +1368,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="15">
+        <v>41426</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1245,17 +1418,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+    <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="15">
+        <v>41429</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
       <c r="K13" s="7" t="s">
@@ -1267,17 +1454,31 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="15">
+        <v>41432</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="13">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
       <c r="K14" s="7" t="s">
@@ -1289,17 +1490,31 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+    <row r="15" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="15">
+        <v>41433</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="13">
+        <v>6</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
       <c r="K15" s="7" t="s">
@@ -1311,17 +1526,31 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+    <row r="16" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="15">
+        <v>41434</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="13">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
       <c r="K16" s="7" t="s">
@@ -1333,17 +1562,31 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="15">
+        <v>41435</v>
+      </c>
       <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="13">
+        <v>4</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
       <c r="K17" s="7" t="s">
@@ -1355,17 +1598,31 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="15">
+        <v>41440</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="13">
+        <v>3</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
       <c r="K18" s="7" t="s">
@@ -1377,17 +1634,31 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+    <row r="19" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="15">
+        <v>41442</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="13">
+        <v>3</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
       <c r="K19" s="7" t="s">
@@ -1399,17 +1670,31 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+    <row r="20" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="15">
+        <v>41443</v>
+      </c>
       <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
       <c r="K20" s="7" t="s">
@@ -1422,16 +1707,30 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="15">
+        <v>41444</v>
+      </c>
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="13">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
       <c r="K21" s="7" t="s">
@@ -1444,16 +1743,30 @@
       <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="15">
+        <v>41449</v>
+      </c>
       <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="13">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
       <c r="K22" s="7" t="s">
@@ -1466,16 +1779,30 @@
       <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="15">
+        <v>41450</v>
+      </c>
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="13">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
       <c r="K23" s="7" t="s">
@@ -1487,48 +1814,92 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+    <row r="24" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="15">
+        <v>41451</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="13">
+        <v>3</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="15">
+        <v>41452</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="13">
+        <v>8</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2285,5 +2656,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projectlog.xlsx
+++ b/projectlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="135">
   <si>
     <t>Week</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Code Academy Tutorial</t>
   </si>
   <si>
-    <t>Code Academy Tutorial</t>
-  </si>
-  <si>
     <t>21May2013</t>
   </si>
   <si>
@@ -290,13 +287,145 @@
   </si>
   <si>
     <t>Edit report and record video</t>
+  </si>
+  <si>
+    <t>5/31/2013</t>
+  </si>
+  <si>
+    <t>Peer evaluation</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Exploring different buttons, icons  and other properties of html file</t>
+  </si>
+  <si>
+    <t>Design of frontuser html &amp; editting other html files</t>
+  </si>
+  <si>
+    <t>4(03 May-10 Jun)</t>
+  </si>
+  <si>
+    <t>Exploring SQL functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL </t>
+  </si>
+  <si>
+    <t>NUS open ID</t>
+  </si>
+  <si>
+    <t>learning code</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission Control </t>
+  </si>
+  <si>
+    <t>Security, Cache, Sessions, Cookies</t>
+  </si>
+  <si>
+    <t>5(10 Jun -16 Jun)</t>
+  </si>
+  <si>
+    <t>Research on gql +sql</t>
+  </si>
+  <si>
+    <t>tutorial for the use of command lines</t>
+  </si>
+  <si>
+    <t>6/14/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read up on datastore +database of GAE </t>
+  </si>
+  <si>
+    <t>read up +practice</t>
+  </si>
+  <si>
+    <t>6(17 Jun- 23 Jun)</t>
+  </si>
+  <si>
+    <t>6/17/2013</t>
+  </si>
+  <si>
+    <t>HTML+python files profile,changeprofile</t>
+  </si>
+  <si>
+    <t>created html +editting work</t>
+  </si>
+  <si>
+    <t>6/18/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database for moduleReviews </t>
+  </si>
+  <si>
+    <t>Debuggin for errors, as couldn’t be displayed</t>
+  </si>
+  <si>
+    <t>6/19/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML files addReview viewReview </t>
+  </si>
+  <si>
+    <t>6/20/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML +python files Search, Searchfaculty, Searchfass </t>
+  </si>
+  <si>
+    <t>6/22/2013</t>
+  </si>
+  <si>
+    <t>added in the modules of FASS in html file as display</t>
+  </si>
+  <si>
+    <t>editing fass html</t>
+  </si>
+  <si>
+    <t>7(24 Jun- 30 Jun)</t>
+  </si>
+  <si>
+    <t>6/25/2013</t>
+  </si>
+  <si>
+    <t>Research on how to retrieve module details from CORS&amp; JSON</t>
+  </si>
+  <si>
+    <t>research(askbot+json)</t>
+  </si>
+  <si>
+    <t>6/26/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Added a construction html file + in python file</t>
+  </si>
+  <si>
+    <t>6/27/2013</t>
+  </si>
+  <si>
+    <t>Edit the whole folder before deployment</t>
+  </si>
+  <si>
+    <t>removed some unwanted codes and tried adding new codes in</t>
+  </si>
+  <si>
+    <t>Edit report &amp;record video for peer evaluation</t>
+  </si>
+  <si>
+    <t>edit report and record video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -310,23 +439,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF990000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF990000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF7EE9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -353,6 +466,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF99CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -446,53 +572,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,7 +724,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -627,7 +758,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -803,14 +933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="L18" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
@@ -826,7 +956,7 @@
     <col min="16" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="36">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -851,1058 +981,1304 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7">
+      <c r="L2" s="17">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13">
         <v>8</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
+      <c r="L3" s="17">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13">
         <v>8</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:16" ht="78" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="13">
+        <v>4</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="112.5" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="17">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="13">
+        <v>5</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="78" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="13">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="O6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="41.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="13">
+        <v>6</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="13">
+        <v>4</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="17">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="13">
+        <v>7</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10">
+        <v>41422</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="13">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="39.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="10">
+        <v>41423</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="L11" s="17">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="13">
+        <v>2</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10">
+        <v>41426</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="13">
+        <v>2</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="10">
+        <v>41429</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="12">
+        <v>3</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="10">
+        <v>41432</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="12">
+        <v>2</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="10">
+        <v>41433</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="8">
+        <v>6</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="15">
+        <v>41280</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="48.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="10">
+        <v>41434</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="15">
+        <v>41339</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="12">
+        <v>2</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="24.75" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="10">
+        <v>41435</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="8">
         <v>4</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="G17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="15">
+        <v>41370</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="12">
+        <v>4</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="37.5" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10">
+        <v>41440</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="15">
+        <v>41400</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="12">
+        <v>4</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="53.25" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10">
+        <v>41442</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="15">
+        <v>41584</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="12">
+        <v>2</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="37.5" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="10">
+        <v>41443</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="15">
+        <v>41614</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="12">
+        <v>8</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="10">
+        <v>41444</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="8">
         <v>5</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="G21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="12">
+        <v>5</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="10">
+        <v>41449</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="12">
+        <v>5</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="10">
+        <v>41450</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" s="12">
+        <v>5</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="27" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="10">
+        <v>41451</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="N24" s="12">
+        <v>3</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="10">
+        <v>41452</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="8">
+        <v>8</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="12">
         <v>4</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="O25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="7">
-        <v>7</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="L26" s="14">
+        <v>1</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N26" s="12">
+        <v>5</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="L27" s="14">
+        <v>1</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" s="12">
         <v>6</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="7">
-        <v>7</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="15">
-        <v>41422</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="15">
-        <v>41423</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="6">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="15">
-        <v>41426</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="6">
-        <v>5</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="15">
-        <v>41429</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="6">
-        <v>3</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="15">
-        <v>41432</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="13">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="15">
-        <v>41433</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="13">
-        <v>6</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="15">
-        <v>41434</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="13">
-        <v>5</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="15">
-        <v>41435</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="13">
-        <v>4</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="15">
-        <v>41440</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="13">
-        <v>3</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="15">
-        <v>41442</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="13">
-        <v>3</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="15">
-        <v>41443</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="13">
-        <v>3</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="15">
-        <v>41444</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="13">
-        <v>5</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="15">
-        <v>41449</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="13">
-        <v>5</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="15">
-        <v>41450</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="13">
-        <v>5</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="15">
-        <v>41451</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="13">
-        <v>3</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="15">
-        <v>41452</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="13">
-        <v>8</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1911,9 +2287,32 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" s="12">
+        <v>1</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1922,9 +2321,32 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="12">
+        <v>2</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1933,9 +2355,32 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="12">
+        <v>7</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1944,9 +2389,8 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1955,9 +2399,8 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1966,9 +2409,8 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1977,9 +2419,8 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1990,7 +2431,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2001,7 +2442,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2012,7 +2453,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2023,7 +2464,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2034,7 +2475,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2045,7 +2486,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2056,7 +2497,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2067,7 +2508,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2078,7 +2519,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2089,7 +2530,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2100,7 +2541,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2111,7 +2552,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2122,7 +2563,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2133,7 +2574,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2144,7 +2585,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2154,7 +2595,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2164,7 +2605,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2174,7 +2615,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2184,7 +2625,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2194,7 +2635,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2204,7 +2645,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2214,7 +2655,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2224,7 +2665,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2234,7 +2675,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2244,7 +2685,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="12.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2254,7 +2695,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="12.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2264,7 +2705,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2274,7 +2715,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="12.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2284,7 +2725,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2294,7 +2735,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="12.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2304,7 +2745,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2314,7 +2755,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2324,7 +2765,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2334,7 +2775,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="12.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2344,7 +2785,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2354,7 +2795,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="12.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2364,7 +2805,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="12.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2374,7 +2815,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="12.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2384,7 +2825,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="12.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2394,7 +2835,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="12.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2404,7 +2845,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2414,7 +2855,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2424,7 +2865,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2434,7 +2875,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2444,7 +2885,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2454,7 +2895,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2464,7 +2905,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2474,7 +2915,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2484,7 +2925,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2494,7 +2935,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="12.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2504,7 +2945,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2514,7 +2955,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2524,7 +2965,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="12.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2534,7 +2975,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="12.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2544,7 +2985,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="12.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2554,7 +2995,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="12.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2564,7 +3005,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="12.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2574,7 +3015,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="12.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2584,7 +3025,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="12.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2594,7 +3035,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="12.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2604,7 +3045,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="12.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2614,7 +3055,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="12.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2624,7 +3065,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="12.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2634,7 +3075,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="12.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2644,7 +3085,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="12.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>

--- a/projectlog.xlsx
+++ b/projectlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="137">
   <si>
     <t>Week</t>
   </si>
@@ -419,13 +419,19 @@
   </si>
   <si>
     <t>edit report and record video</t>
+  </si>
+  <si>
+    <t>Mission Control on Security</t>
+  </si>
+  <si>
+    <t>Learn about cookies,cache,hash and learn hack ivle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -724,6 +730,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -758,6 +765,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -933,14 +941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L18" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
@@ -956,7 +964,7 @@
     <col min="16" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="78" customHeight="1">
+    <row r="4" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="112.5" customHeight="1">
+    <row r="5" spans="1:16" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="78" customHeight="1">
+    <row r="6" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="41.25" customHeight="1">
+    <row r="7" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.5" customHeight="1">
+    <row r="8" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27" customHeight="1">
+    <row r="9" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="28.5" customHeight="1">
+    <row r="10" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="39.75" customHeight="1">
+    <row r="11" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1498,7 +1506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1">
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1548,7 +1556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="25.5" customHeight="1">
+    <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>63</v>
       </c>
@@ -1598,7 +1606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="25.5" customHeight="1">
+    <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>63</v>
       </c>
@@ -1648,7 +1656,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="38.25" customHeight="1">
+    <row r="15" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>63</v>
       </c>
@@ -1698,7 +1706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="48.75" customHeight="1">
+    <row r="16" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>63</v>
       </c>
@@ -1748,7 +1756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24.75" customHeight="1">
+    <row r="17" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>72</v>
       </c>
@@ -1798,12 +1806,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="37.5" customHeight="1">
+    <row r="18" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="10">
-        <v>41440</v>
+        <v>41436</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>9</v>
@@ -1812,16 +1820,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F18" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>96</v>
@@ -1848,12 +1856,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="53.25" customHeight="1">
+    <row r="19" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B19" s="10">
-        <v>41442</v>
+        <v>41440</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>9</v>
@@ -1862,16 +1870,16 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F19" s="8">
         <v>3</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>96</v>
@@ -1898,12 +1906,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="37.5" customHeight="1">
+    <row r="20" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="10">
-        <v>41443</v>
+        <v>41442</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>9</v>
@@ -1912,16 +1920,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>104</v>
@@ -1948,12 +1956,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1">
+    <row r="21" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="10">
-        <v>41444</v>
+        <v>41443</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -1962,16 +1970,16 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>104</v>
@@ -1998,12 +2006,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1">
+    <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B22" s="10">
-        <v>41449</v>
+        <v>41444</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -2048,12 +2056,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="10">
-        <v>41450</v>
+        <v>41449</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
@@ -2062,16 +2070,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F23" s="8">
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>110</v>
@@ -2098,12 +2106,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="27" customHeight="1">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="10">
-        <v>41451</v>
+        <v>41450</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>9</v>
@@ -2112,16 +2120,16 @@
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>110</v>
@@ -2148,12 +2156,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="10">
-        <v>41452</v>
+        <v>41451</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>9</v>
@@ -2162,16 +2170,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F25" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>110</v>
@@ -2198,21 +2206,31 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="12.75" customHeight="1">
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="10">
+        <v>41452</v>
+      </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="E26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="8">
+        <v>8</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="I26" s="11" t="s">
         <v>110</v>
       </c>
@@ -2238,7 +2256,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>84</v>
       </c>
@@ -2278,15 +2296,21 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="11" t="s">
         <v>124</v>
       </c>
@@ -2312,7 +2336,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="12.75" customHeight="1">
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2346,7 +2370,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1">
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2380,7 +2404,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1">
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2390,7 +2414,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="12.75" customHeight="1">
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2400,7 +2424,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2410,7 +2434,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2420,7 +2444,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2431,7 +2455,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2442,7 +2466,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2453,7 +2477,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2464,7 +2488,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2475,7 +2499,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2486,7 +2510,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2497,7 +2521,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2508,7 +2532,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2519,7 +2543,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2530,7 +2554,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2541,7 +2565,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2552,7 +2576,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2563,7 +2587,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1">
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2574,7 +2598,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1">
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2585,7 +2609,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1">
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2595,7 +2619,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2605,7 +2629,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1">
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2615,7 +2639,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1">
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2625,7 +2649,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1">
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2635,7 +2659,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1">
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2645,7 +2669,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1">
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2655,7 +2679,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1">
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2665,7 +2689,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2675,7 +2699,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1">
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2685,7 +2709,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1">
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2695,7 +2719,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1">
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2705,7 +2729,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1">
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2715,7 +2739,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1">
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2725,7 +2749,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2735,7 +2759,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1">
+    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2745,7 +2769,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1">
+    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2755,7 +2779,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1">
+    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2765,7 +2789,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1">
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2775,7 +2799,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1">
+    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2785,7 +2809,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1">
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2795,7 +2819,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="12.75" customHeight="1">
+    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2805,7 +2829,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="12.75" customHeight="1">
+    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2815,7 +2839,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="12.75" customHeight="1">
+    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2825,7 +2849,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="12.75" customHeight="1">
+    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2835,7 +2859,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="12.75" customHeight="1">
+    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2845,7 +2869,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="12.75" customHeight="1">
+    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2855,7 +2879,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="12.75" customHeight="1">
+    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2865,7 +2889,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1">
+    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2875,7 +2899,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="12.75" customHeight="1">
+    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2885,7 +2909,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="12.75" customHeight="1">
+    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2895,7 +2919,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="12.75" customHeight="1">
+    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2905,7 +2929,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="12.75" customHeight="1">
+    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2915,7 +2939,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="12.75" customHeight="1">
+    <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2925,7 +2949,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="12.75" customHeight="1">
+    <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2935,7 +2959,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="12.75" customHeight="1">
+    <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2945,7 +2969,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="12.75" customHeight="1">
+    <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2955,7 +2979,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="12.75" customHeight="1">
+    <row r="87" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2965,7 +2989,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="12.75" customHeight="1">
+    <row r="88" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2975,7 +2999,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75" customHeight="1">
+    <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2985,7 +3009,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="12.75" customHeight="1">
+    <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2995,7 +3019,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="12.75" customHeight="1">
+    <row r="91" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3005,7 +3029,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="12.75" customHeight="1">
+    <row r="92" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3015,7 +3039,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="12.75" customHeight="1">
+    <row r="93" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3025,7 +3049,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="12.75" customHeight="1">
+    <row r="94" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3035,7 +3059,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="12.75" customHeight="1">
+    <row r="95" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3045,7 +3069,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="12.75" customHeight="1">
+    <row r="96" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3055,7 +3079,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="12.75" customHeight="1">
+    <row r="97" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3065,7 +3089,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="12.75" customHeight="1">
+    <row r="98" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3075,7 +3099,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="12.75" customHeight="1">
+    <row r="99" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3085,7 +3109,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="12.75" customHeight="1">
+    <row r="100" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
